--- a/data/trans_orig/P79A2_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P79A2_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>22801</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16005</v>
+        <v>16699</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27935</v>
+        <v>28204</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6778051552386392</v>
+        <v>0.6778051552386389</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4757869656110619</v>
+        <v>0.4964106227390428</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8303955217224505</v>
+        <v>0.8384002395027176</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -762,19 +762,19 @@
         <v>27874</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18926</v>
+        <v>18297</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34952</v>
+        <v>34377</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5345396433836113</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3629415519061867</v>
+        <v>0.350880475346431</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6702706196565115</v>
+        <v>0.6592426747485699</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -783,19 +783,19 @@
         <v>50675</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40464</v>
+        <v>40546</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59983</v>
+        <v>60466</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5907192378923097</v>
+        <v>0.5907192378923098</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.471682482945081</v>
+        <v>0.4726421413546279</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6992218910315825</v>
+        <v>0.7048490977254178</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>10839</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5705</v>
+        <v>5436</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17635</v>
+        <v>16941</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3221948447613611</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1696044782775495</v>
+        <v>0.1615997604972824</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5242130343889387</v>
+        <v>0.5035893772609573</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -833,19 +833,19 @@
         <v>24272</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17194</v>
+        <v>17769</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33220</v>
+        <v>33849</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4654603566163888</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3297293803434886</v>
+        <v>0.3407573252514299</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6370584480938136</v>
+        <v>0.6491195246535691</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>34</v>
@@ -854,19 +854,19 @@
         <v>35111</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25803</v>
+        <v>25320</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>45322</v>
+        <v>45240</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.40928076210769</v>
+        <v>0.4092807621076901</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3007781089684168</v>
+        <v>0.2951509022745822</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5283175170549189</v>
+        <v>0.5273578586453721</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>20115</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13568</v>
+        <v>14306</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23747</v>
+        <v>23880</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8019227760447381</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5408830307005901</v>
+        <v>0.5703204476857394</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9466892469446141</v>
+        <v>0.9520117861223706</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -979,7 +979,7 @@
         <v>21335</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18578</v>
+        <v>18272</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>22039</v>
@@ -988,7 +988,7 @@
         <v>0.9680579965432632</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8429667800295287</v>
+        <v>0.8290635248233889</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -1000,19 +1000,19 @@
         <v>41450</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34896</v>
+        <v>35241</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44915</v>
+        <v>45323</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8796214387037091</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7405352605925621</v>
+        <v>0.7478567981589749</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9531359899762777</v>
+        <v>0.9617980624449912</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>4969</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1337</v>
+        <v>1204</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11516</v>
+        <v>10778</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.198077223955262</v>
+        <v>0.1980772239552621</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05331075305538669</v>
+        <v>0.04798821387762948</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.45911696929941</v>
+        <v>0.4296795523142611</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3461</v>
+        <v>3767</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03194200345673689</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1570332199704713</v>
+        <v>0.1709364751766121</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -1071,19 +1071,19 @@
         <v>5673</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2208</v>
+        <v>1800</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12227</v>
+        <v>11882</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1203785612962909</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0468640100237222</v>
+        <v>0.03820193755500877</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.259464739407438</v>
+        <v>0.252143201841025</v>
       </c>
     </row>
     <row r="9">
@@ -1365,7 +1365,7 @@
         <v>3465</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>756</v>
+        <v>790</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>5156</v>
@@ -1374,7 +1374,7 @@
         <v>0.6719386745215701</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1467019520949549</v>
+        <v>0.1531594218575468</v>
       </c>
       <c r="P13" s="6" t="n">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>4605</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1667</v>
+        <v>1686</v>
       </c>
       <c r="T13" s="5" t="n">
         <v>7456</v>
@@ -1395,7 +1395,7 @@
         <v>0.6176712090950212</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2235977076907187</v>
+        <v>0.2260824994524717</v>
       </c>
       <c r="W13" s="6" t="n">
         <v>1</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4405</v>
+        <v>4359</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3280613254784299</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8544324612113779</v>
+        <v>0.8453528967882907</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5802</v>
+        <v>5772</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.382328790904979</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7781321256812115</v>
+        <v>0.7742038746811083</v>
       </c>
     </row>
     <row r="15">
@@ -1561,19 +1561,19 @@
         <v>47277</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39401</v>
+        <v>38378</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54198</v>
+        <v>54084</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7359020899566371</v>
+        <v>0.7359020899566372</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6133112543062214</v>
+        <v>0.5973836834155125</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8436464747278286</v>
+        <v>0.8418640392382988</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>66</v>
@@ -1582,19 +1582,19 @@
         <v>57488</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45593</v>
+        <v>46634</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66349</v>
+        <v>66147</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6831159730803701</v>
+        <v>0.6831159730803698</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5417748955117776</v>
+        <v>0.5541382881047628</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7884200031595532</v>
+        <v>0.7860167445398134</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>105</v>
@@ -1603,19 +1603,19 @@
         <v>104764</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>91469</v>
+        <v>90952</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>116203</v>
+        <v>116008</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7059677092657994</v>
+        <v>0.7059677092657995</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6163790902630093</v>
+        <v>0.6128942711135197</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7830474237471624</v>
+        <v>0.7817355263375164</v>
       </c>
     </row>
     <row r="17">
@@ -1632,19 +1632,19 @@
         <v>16966</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10045</v>
+        <v>10159</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24842</v>
+        <v>25865</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2640979100433628</v>
+        <v>0.2640979100433627</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1563535252721711</v>
+        <v>0.1581359607617002</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3866887456937783</v>
+        <v>0.402616316584487</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -1653,19 +1653,19 @@
         <v>26667</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17806</v>
+        <v>18008</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38562</v>
+        <v>37521</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3168840269196301</v>
+        <v>0.31688402691963</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2115799968404467</v>
+        <v>0.2139832554601866</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4582251044882228</v>
+        <v>0.4458617118952369</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>41</v>
@@ -1674,19 +1674,19 @@
         <v>43634</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>32195</v>
+        <v>32390</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>56929</v>
+        <v>57446</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2940322907342006</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2169525762528374</v>
+        <v>0.2182644736624837</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3836209097369913</v>
+        <v>0.3871057288864802</v>
       </c>
     </row>
     <row r="18">
